--- a/BackTest/2020-01-23 BackTest APIS.xlsx
+++ b/BackTest/2020-01-23 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,6 +543,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -577,6 +585,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,6 +627,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -653,6 +663,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -688,6 +699,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -723,6 +735,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -758,6 +771,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -793,6 +807,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,6 +843,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -855,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -863,6 +879,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -898,6 +915,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -933,6 +951,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -968,6 +987,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1003,6 +1023,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1038,6 +1059,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1073,6 +1095,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1108,6 +1131,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1143,6 +1167,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,6 +1203,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1213,6 +1239,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,6 +1275,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1283,6 +1311,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1318,6 +1347,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1353,6 +1383,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1388,6 +1419,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1423,6 +1455,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1458,6 +1491,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1493,6 +1527,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1528,6 +1563,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1563,6 +1599,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1598,6 +1635,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1633,6 +1671,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1668,6 +1707,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1703,6 +1743,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1738,6 +1779,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1773,6 +1815,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1808,6 +1851,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1843,6 +1887,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1878,6 +1923,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,6 +1959,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1948,6 +1995,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,6 +2031,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2018,6 +2067,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2053,6 +2103,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2088,6 +2139,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2123,6 +2175,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2158,6 +2211,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2193,6 +2247,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2228,6 +2283,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2267,6 +2323,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2308,6 +2365,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2349,6 +2407,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2384,6 +2443,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2419,6 +2479,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2454,6 +2515,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2489,6 +2551,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2524,6 +2587,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2559,6 +2623,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2594,6 +2659,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2629,6 +2695,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2664,6 +2731,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2699,6 +2767,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2734,6 +2803,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2769,6 +2839,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2804,6 +2875,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2839,6 +2911,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2874,6 +2947,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2909,6 +2983,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2944,6 +3019,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2979,6 +3055,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3014,6 +3091,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3049,6 +3127,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3084,6 +3163,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3119,6 +3199,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3154,6 +3235,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3189,6 +3271,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3224,6 +3307,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3259,6 +3343,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3294,6 +3379,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3329,6 +3415,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3364,6 +3451,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3399,6 +3487,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3438,6 +3527,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3479,6 +3569,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3520,6 +3611,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3555,6 +3647,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3590,6 +3683,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3625,6 +3719,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3660,6 +3755,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3695,6 +3791,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3730,6 +3827,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3765,6 +3863,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3800,6 +3899,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3835,6 +3935,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3870,6 +3971,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3905,6 +4007,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3940,6 +4043,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3975,6 +4079,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4010,6 +4115,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4045,6 +4151,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4084,6 +4191,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4125,6 +4233,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4166,6 +4275,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4201,6 +4311,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4236,6 +4347,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4271,6 +4383,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4306,6 +4419,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4341,6 +4455,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest APIS.xlsx
+++ b/BackTest/2020-01-23 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5728</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5728</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5728</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5728</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>4268145.1035</v>
+        <v>1578498.6336</v>
       </c>
       <c r="G2" t="n">
-        <v>9185266.236500004</v>
+        <v>2749835.184900001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5725</v>
+        <v>0.5712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5725</v>
+        <v>0.5712</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5725</v>
+        <v>0.5712</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5725</v>
+        <v>0.5712</v>
       </c>
       <c r="F3" t="n">
-        <v>1575431.7697</v>
+        <v>1345213.8739</v>
       </c>
       <c r="G3" t="n">
-        <v>7609834.466800004</v>
+        <v>4095049.058800001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,35 +510,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5726</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5726</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5726</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5726</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>2560734.407</v>
+        <v>3484786.9053</v>
       </c>
       <c r="G4" t="n">
-        <v>10170568.8738</v>
+        <v>7579835.964100001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.5725</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5725</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -550,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5728</v>
+        <v>0.5714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5728</v>
+        <v>0.5714</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5728</v>
+        <v>0.5714</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5728</v>
+        <v>0.5714</v>
       </c>
       <c r="F5" t="n">
-        <v>2179800.0466</v>
+        <v>3423628.4842</v>
       </c>
       <c r="G5" t="n">
-        <v>12350368.9204</v>
+        <v>4156207.479900002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -574,14 +570,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0.5725</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -592,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5729</v>
+        <v>0.5709</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5729</v>
+        <v>0.5709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5729</v>
+        <v>0.5709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5729</v>
+        <v>0.5709</v>
       </c>
       <c r="F6" t="n">
-        <v>911.6648</v>
+        <v>3828461.1068</v>
       </c>
       <c r="G6" t="n">
-        <v>12351280.5852</v>
+        <v>327746.3731000014</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -616,14 +606,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0.5725</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -634,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.572</v>
+        <v>0.5732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.572</v>
+        <v>0.5732</v>
       </c>
       <c r="D7" t="n">
-        <v>0.572</v>
+        <v>0.5732</v>
       </c>
       <c r="E7" t="n">
-        <v>0.572</v>
+        <v>0.5732</v>
       </c>
       <c r="F7" t="n">
-        <v>1611148.0539</v>
+        <v>2133525.1248</v>
       </c>
       <c r="G7" t="n">
-        <v>10740132.5313</v>
+        <v>2461271.497900001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -670,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5722</v>
+        <v>0.5709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5722</v>
+        <v>0.5709</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5722</v>
+        <v>0.5709</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5722</v>
+        <v>0.5709</v>
       </c>
       <c r="F8" t="n">
-        <v>1740993.7051</v>
+        <v>2097888.9037</v>
       </c>
       <c r="G8" t="n">
-        <v>12481126.2364</v>
+        <v>363382.5942000011</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -718,16 +702,16 @@
         <v>0.5722</v>
       </c>
       <c r="F9" t="n">
-        <v>3893638.9662</v>
+        <v>3750126.4504</v>
       </c>
       <c r="G9" t="n">
-        <v>12481126.2364</v>
+        <v>4113509.044600001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -742,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5724</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5724</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5724</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5724</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>2744929.3002</v>
+        <v>1682113.9069</v>
       </c>
       <c r="G10" t="n">
-        <v>15226055.5366</v>
+        <v>2431395.137700001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -781,25 +765,25 @@
         <v>0.5729</v>
       </c>
       <c r="C11" t="n">
-        <v>0.572</v>
+        <v>0.5729</v>
       </c>
       <c r="D11" t="n">
         <v>0.5729</v>
       </c>
       <c r="E11" t="n">
-        <v>0.572</v>
+        <v>0.5729</v>
       </c>
       <c r="F11" t="n">
-        <v>4281674.9184</v>
+        <v>942.585</v>
       </c>
       <c r="G11" t="n">
-        <v>10944380.6182</v>
+        <v>2432337.722700001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -814,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5729</v>
+        <v>0.5709</v>
       </c>
       <c r="C12" t="n">
-        <v>0.572</v>
+        <v>0.5709</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5729</v>
+        <v>0.5709</v>
       </c>
       <c r="E12" t="n">
-        <v>0.572</v>
+        <v>0.5709</v>
       </c>
       <c r="F12" t="n">
-        <v>4235.0671</v>
+        <v>2833429.8858</v>
       </c>
       <c r="G12" t="n">
-        <v>10944380.6182</v>
+        <v>-401092.1630999991</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -850,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.572</v>
+        <v>0.5723</v>
       </c>
       <c r="C13" t="n">
-        <v>0.572</v>
+        <v>0.5723</v>
       </c>
       <c r="D13" t="n">
-        <v>0.572</v>
+        <v>0.5723</v>
       </c>
       <c r="E13" t="n">
-        <v>0.572</v>
+        <v>0.5723</v>
       </c>
       <c r="F13" t="n">
-        <v>54702.7973</v>
+        <v>2370355.1784</v>
       </c>
       <c r="G13" t="n">
-        <v>10944380.6182</v>
+        <v>1969263.015300001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -886,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="E14" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="F14" t="n">
-        <v>1246564.4505</v>
+        <v>2862165.1766</v>
       </c>
       <c r="G14" t="n">
-        <v>12190945.0687</v>
+        <v>-892902.1612999989</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -922,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5724</v>
+        <v>0.571</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5724</v>
+        <v>0.571</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5724</v>
+        <v>0.571</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5724</v>
+        <v>0.571</v>
       </c>
       <c r="F15" t="n">
-        <v>3317565.3154</v>
+        <v>3410473.5173</v>
       </c>
       <c r="G15" t="n">
-        <v>8873379.753300004</v>
+        <v>-4303375.678599998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -970,16 +954,16 @@
         <v>0.5713</v>
       </c>
       <c r="F16" t="n">
-        <v>1252580.9559</v>
+        <v>2285581.1389</v>
       </c>
       <c r="G16" t="n">
-        <v>7620798.797400003</v>
+        <v>-2017794.539699998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -994,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5713</v>
+        <v>0.5708</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5818</v>
+        <v>0.5708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5818</v>
+        <v>0.5708</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5713</v>
+        <v>0.5708</v>
       </c>
       <c r="F17" t="n">
-        <v>2360107</v>
+        <v>1463805.9334</v>
       </c>
       <c r="G17" t="n">
-        <v>9980905.797400003</v>
+        <v>-3481600.473099998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1030,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.571</v>
+        <v>0.5722</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5818</v>
+        <v>0.5722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5818</v>
+        <v>0.5722</v>
       </c>
       <c r="E18" t="n">
-        <v>0.571</v>
+        <v>0.5722</v>
       </c>
       <c r="F18" t="n">
-        <v>1326157.5436</v>
+        <v>2716955.7188</v>
       </c>
       <c r="G18" t="n">
-        <v>9980905.797400003</v>
+        <v>-764644.7542999983</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1066,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.5724</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.5724</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.5724</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.5724</v>
       </c>
       <c r="F19" t="n">
-        <v>3224262.8052</v>
+        <v>1102809.245</v>
       </c>
       <c r="G19" t="n">
-        <v>6756642.992200004</v>
+        <v>338164.4907000018</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1102,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5717</v>
+        <v>0.5708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5717</v>
+        <v>0.5708</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5717</v>
+        <v>0.5708</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5717</v>
+        <v>0.5708</v>
       </c>
       <c r="F20" t="n">
-        <v>1438294.5408</v>
+        <v>2517104.4924</v>
       </c>
       <c r="G20" t="n">
-        <v>5318348.451400004</v>
+        <v>-2178940.001699998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1138,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5712</v>
+        <v>0.5729</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5704</v>
+        <v>0.5729</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5712</v>
+        <v>0.5729</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5704</v>
+        <v>0.5729</v>
       </c>
       <c r="F21" t="n">
-        <v>2727113.2791</v>
+        <v>911.6195</v>
       </c>
       <c r="G21" t="n">
-        <v>2591235.172300004</v>
+        <v>-2178028.382199998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1174,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5745</v>
+        <v>0.5714</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5745</v>
+        <v>0.5714</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5745</v>
+        <v>0.5714</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5745</v>
+        <v>0.5714</v>
       </c>
       <c r="F22" t="n">
-        <v>1872196.4042</v>
+        <v>3313878.2892</v>
       </c>
       <c r="G22" t="n">
-        <v>4463431.576500004</v>
+        <v>-5491906.671399998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1210,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5767</v>
+        <v>0.5729</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5767</v>
+        <v>0.5729</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5767</v>
+        <v>0.5729</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5767</v>
+        <v>0.5729</v>
       </c>
       <c r="F23" t="n">
-        <v>1268155.877</v>
+        <v>913.9074000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>5731587.453500004</v>
+        <v>-5490992.763999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1246,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5794</v>
+        <v>0.572</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5794</v>
+        <v>0.572</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5794</v>
+        <v>0.572</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5794</v>
+        <v>0.572</v>
       </c>
       <c r="F24" t="n">
-        <v>2860966.0236</v>
+        <v>3582220.4167</v>
       </c>
       <c r="G24" t="n">
-        <v>8592553.477100004</v>
+        <v>-9073213.180699997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1282,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5726</v>
+        <v>0.5724</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5726</v>
+        <v>0.5724</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5726</v>
+        <v>0.5724</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5726</v>
+        <v>0.5724</v>
       </c>
       <c r="F25" t="n">
-        <v>3262067.4718</v>
+        <v>3483283.6093</v>
       </c>
       <c r="G25" t="n">
-        <v>5330486.005300004</v>
+        <v>-5589929.571399996</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1318,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5712</v>
+        <v>0.5725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5704</v>
+        <v>0.5725</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5712</v>
+        <v>0.5725</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5704</v>
+        <v>0.5725</v>
       </c>
       <c r="F26" t="n">
-        <v>2360967</v>
+        <v>2367472.1996</v>
       </c>
       <c r="G26" t="n">
-        <v>2969519.005300004</v>
+        <v>-3222457.371799996</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1354,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5755</v>
+        <v>0.5726</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5755</v>
+        <v>0.5726</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5755</v>
+        <v>0.5726</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5755</v>
+        <v>0.5726</v>
       </c>
       <c r="F27" t="n">
-        <v>3731142.4059</v>
+        <v>4217313.5213</v>
       </c>
       <c r="G27" t="n">
-        <v>6700661.411200004</v>
+        <v>994856.149500004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1390,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5728</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5728</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5728</v>
       </c>
       <c r="F28" t="n">
-        <v>886.3672</v>
+        <v>3967558.8666</v>
       </c>
       <c r="G28" t="n">
-        <v>6701547.778400004</v>
+        <v>4962415.016100004</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1426,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5736</v>
+        <v>0.572</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5736</v>
+        <v>0.572</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5736</v>
+        <v>0.572</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5736</v>
+        <v>0.572</v>
       </c>
       <c r="F29" t="n">
-        <v>2057490.1958</v>
+        <v>1362595.372</v>
       </c>
       <c r="G29" t="n">
-        <v>4644057.582600004</v>
+        <v>3599819.644100004</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1462,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5737</v>
+        <v>0.5726</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5737</v>
+        <v>0.5726</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5737</v>
+        <v>0.5726</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5737</v>
+        <v>0.5726</v>
       </c>
       <c r="F30" t="n">
-        <v>2924726.3601</v>
+        <v>1317301.4889</v>
       </c>
       <c r="G30" t="n">
-        <v>7568783.942700004</v>
+        <v>4917121.133000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1498,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5728</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5728</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5728</v>
       </c>
       <c r="F31" t="n">
-        <v>878.5608</v>
+        <v>4268145.1035</v>
       </c>
       <c r="G31" t="n">
-        <v>7569662.503500004</v>
+        <v>9185266.236500004</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1534,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5788</v>
+        <v>0.5725</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5788</v>
+        <v>0.5725</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5788</v>
+        <v>0.5725</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5788</v>
+        <v>0.5725</v>
       </c>
       <c r="F32" t="n">
-        <v>2515090.9693</v>
+        <v>1575431.7697</v>
       </c>
       <c r="G32" t="n">
-        <v>5054571.534200004</v>
+        <v>7609834.466800004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1570,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5716</v>
+        <v>0.5726</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5716</v>
+        <v>0.5726</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5716</v>
+        <v>0.5726</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5716</v>
+        <v>0.5726</v>
       </c>
       <c r="F33" t="n">
-        <v>3466650.1471</v>
+        <v>2560734.407</v>
       </c>
       <c r="G33" t="n">
-        <v>1587921.387100004</v>
+        <v>10170568.8738</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1606,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5712</v>
+        <v>0.5728</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5704</v>
+        <v>0.5728</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5712</v>
+        <v>0.5728</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5704</v>
+        <v>0.5728</v>
       </c>
       <c r="F34" t="n">
-        <v>1141932.5521</v>
+        <v>2179800.0466</v>
       </c>
       <c r="G34" t="n">
-        <v>445988.8350000042</v>
+        <v>12350368.9204</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1642,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5739</v>
+        <v>0.5729</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5739</v>
+        <v>0.5729</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5739</v>
+        <v>0.5729</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5739</v>
+        <v>0.5729</v>
       </c>
       <c r="F35" t="n">
-        <v>3443507.559</v>
+        <v>911.6648</v>
       </c>
       <c r="G35" t="n">
-        <v>3889496.394000004</v>
+        <v>12351280.5852</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1678,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5707</v>
+        <v>0.572</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5707</v>
+        <v>0.572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5707</v>
+        <v>0.572</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5707</v>
+        <v>0.572</v>
       </c>
       <c r="F36" t="n">
-        <v>3679544.6403</v>
+        <v>1611148.0539</v>
       </c>
       <c r="G36" t="n">
-        <v>209951.753700004</v>
+        <v>10740132.5313</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1714,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5715</v>
+        <v>0.5722</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5715</v>
+        <v>0.5722</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5715</v>
+        <v>0.5722</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5715</v>
+        <v>0.5722</v>
       </c>
       <c r="F37" t="n">
-        <v>1102222.1889</v>
+        <v>1740993.7051</v>
       </c>
       <c r="G37" t="n">
-        <v>1312173.942600004</v>
+        <v>12481126.2364</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1750,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5722</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5722</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5722</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5722</v>
       </c>
       <c r="F38" t="n">
-        <v>890.6244</v>
+        <v>3893638.9662</v>
       </c>
       <c r="G38" t="n">
-        <v>1313064.567000004</v>
+        <v>12481126.2364</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1786,31 +1770,35 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5758</v>
+        <v>0.5724</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5724</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5724</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5758</v>
+        <v>0.5724</v>
       </c>
       <c r="F39" t="n">
-        <v>2628711.6487</v>
+        <v>2744929.3002</v>
       </c>
       <c r="G39" t="n">
-        <v>1313064.567000004</v>
+        <v>15226055.5366</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5722</v>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
@@ -1822,32 +1810,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5722</v>
+        <v>0.5729</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5722</v>
+        <v>0.5729</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="F40" t="n">
-        <v>1148877.1641</v>
+        <v>4281674.9184</v>
       </c>
       <c r="G40" t="n">
-        <v>164187.4029000041</v>
+        <v>10944380.6182</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1858,32 +1854,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5729</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.572</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5729</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.572</v>
       </c>
       <c r="F41" t="n">
-        <v>890.3419</v>
+        <v>4235.0671</v>
       </c>
       <c r="G41" t="n">
-        <v>165077.7448000041</v>
+        <v>10944380.6182</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1894,32 +1898,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5787</v>
+        <v>0.572</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5787</v>
+        <v>0.572</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5787</v>
+        <v>0.572</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5787</v>
+        <v>0.572</v>
       </c>
       <c r="F42" t="n">
-        <v>3907175.5574</v>
+        <v>54702.7973</v>
       </c>
       <c r="G42" t="n">
-        <v>-3742097.812599996</v>
+        <v>10944380.6182</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1930,32 +1942,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5722</v>
+        <v>0.5726</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5722</v>
+        <v>0.5726</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="F43" t="n">
-        <v>2557704.5616</v>
+        <v>1246564.4505</v>
       </c>
       <c r="G43" t="n">
-        <v>-6299802.374199996</v>
+        <v>12190945.0687</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1966,32 +1986,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5724</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5724</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5724</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5724</v>
       </c>
       <c r="F44" t="n">
-        <v>2295927.2393</v>
+        <v>3317565.3154</v>
       </c>
       <c r="G44" t="n">
-        <v>-4003875.134899996</v>
+        <v>8873379.753300004</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2002,32 +2030,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5713</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5713</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5713</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5713</v>
       </c>
       <c r="F45" t="n">
-        <v>899.2386</v>
+        <v>1252580.9559</v>
       </c>
       <c r="G45" t="n">
-        <v>-4002975.896299996</v>
+        <v>7620798.797400003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2038,32 +2074,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5788</v>
+        <v>0.5713</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5788</v>
+        <v>0.5818</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5788</v>
+        <v>0.5818</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5788</v>
+        <v>0.5713</v>
       </c>
       <c r="F46" t="n">
-        <v>2308142.5759</v>
+        <v>2360107</v>
       </c>
       <c r="G46" t="n">
-        <v>-6311118.472199996</v>
+        <v>9980905.797400003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2074,22 +2118,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5818</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5818</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="F47" t="n">
-        <v>900</v>
+        <v>1326157.5436</v>
       </c>
       <c r="G47" t="n">
-        <v>-6310218.472199996</v>
+        <v>9980905.797400003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2098,8 +2142,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2110,32 +2160,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5743</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5743</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5743</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5743</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>2221689.8317</v>
+        <v>3224262.8052</v>
       </c>
       <c r="G48" t="n">
-        <v>-8531908.303899996</v>
+        <v>6756642.992200004</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2146,32 +2202,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5729</v>
+        <v>0.5717</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5729</v>
+        <v>0.5717</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5729</v>
+        <v>0.5717</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5729</v>
+        <v>0.5717</v>
       </c>
       <c r="F49" t="n">
-        <v>2831780.1377</v>
+        <v>1438294.5408</v>
       </c>
       <c r="G49" t="n">
-        <v>-11363688.44159999</v>
+        <v>5318348.451400004</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2182,22 +2244,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5712</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5704</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5712</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5704</v>
       </c>
       <c r="F50" t="n">
-        <v>111552.302</v>
+        <v>2727113.2791</v>
       </c>
       <c r="G50" t="n">
-        <v>-11475240.74359999</v>
+        <v>2591235.172300004</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2206,8 +2268,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2286,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5707</v>
+        <v>0.5745</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5707</v>
+        <v>0.5745</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5707</v>
+        <v>0.5745</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5707</v>
+        <v>0.5745</v>
       </c>
       <c r="F51" t="n">
-        <v>63407.031</v>
+        <v>1872196.4042</v>
       </c>
       <c r="G51" t="n">
-        <v>-11538647.77459999</v>
+        <v>4463431.576500004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2242,8 +2310,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2254,22 +2328,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5704</v>
+        <v>0.5767</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5704</v>
+        <v>0.5767</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5704</v>
+        <v>0.5767</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5704</v>
+        <v>0.5767</v>
       </c>
       <c r="F52" t="n">
-        <v>170863.4061</v>
+        <v>1268155.877</v>
       </c>
       <c r="G52" t="n">
-        <v>-11709511.18069999</v>
+        <v>5731587.453500004</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2278,8 +2352,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2290,36 +2370,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5732</v>
+        <v>0.5794</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5732</v>
+        <v>0.5794</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5732</v>
+        <v>0.5794</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5732</v>
+        <v>0.5794</v>
       </c>
       <c r="F53" t="n">
-        <v>1495102.1362</v>
+        <v>2860966.0236</v>
       </c>
       <c r="G53" t="n">
-        <v>-10214409.04449999</v>
+        <v>8592553.477100004</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.5704</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>0.5704</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
+        <v>0.5722</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2330,22 +2412,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5707</v>
+        <v>0.5726</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5707</v>
+        <v>0.5726</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5707</v>
+        <v>0.5726</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5707</v>
+        <v>0.5726</v>
       </c>
       <c r="F54" t="n">
-        <v>3889720.2531</v>
+        <v>3262067.4718</v>
       </c>
       <c r="G54" t="n">
-        <v>-14104129.29759999</v>
+        <v>5330486.005300004</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2355,11 +2437,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0.5704</v>
+        <v>0.5722</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -2372,22 +2454,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5712</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5704</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5712</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5704</v>
       </c>
       <c r="F55" t="n">
-        <v>934.7689</v>
+        <v>2360967</v>
       </c>
       <c r="G55" t="n">
-        <v>-14103194.52869999</v>
+        <v>2969519.005300004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2397,11 +2479,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0.5704</v>
+        <v>0.5722</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2414,22 +2496,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5765</v>
+        <v>0.5755</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5765</v>
+        <v>0.5755</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5765</v>
+        <v>0.5755</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5765</v>
+        <v>0.5755</v>
       </c>
       <c r="F56" t="n">
-        <v>3414710.6019</v>
+        <v>3731142.4059</v>
       </c>
       <c r="G56" t="n">
-        <v>-17517905.13059999</v>
+        <v>6700661.411200004</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2438,8 +2520,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2450,22 +2538,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5772</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5772</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5772</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5772</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>923491.1436</v>
+        <v>886.3672</v>
       </c>
       <c r="G57" t="n">
-        <v>-16594413.98699999</v>
+        <v>6701547.778400004</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2474,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2486,22 +2580,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5736</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5736</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5736</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5736</v>
       </c>
       <c r="F58" t="n">
-        <v>1270689.9765</v>
+        <v>2057490.1958</v>
       </c>
       <c r="G58" t="n">
-        <v>-17865103.96349999</v>
+        <v>4644057.582600004</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2510,8 +2604,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2522,22 +2622,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5712</v>
+        <v>0.5737</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5712</v>
+        <v>0.5737</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5712</v>
+        <v>0.5737</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5712</v>
+        <v>0.5737</v>
       </c>
       <c r="F59" t="n">
-        <v>988</v>
+        <v>2924726.3601</v>
       </c>
       <c r="G59" t="n">
-        <v>-17866091.96349999</v>
+        <v>7568783.942700004</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2546,8 +2646,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2558,22 +2664,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5758</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5758</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5758</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5758</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>2450699.7555</v>
+        <v>878.5608</v>
       </c>
       <c r="G60" t="n">
-        <v>-15415392.20799999</v>
+        <v>7569662.503500004</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2582,8 +2688,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2594,22 +2706,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5739</v>
+        <v>0.5788</v>
       </c>
       <c r="C61" t="n">
-        <v>0.577</v>
+        <v>0.5788</v>
       </c>
       <c r="D61" t="n">
-        <v>0.577</v>
+        <v>0.5788</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5739</v>
+        <v>0.5788</v>
       </c>
       <c r="F61" t="n">
-        <v>1736410.8909</v>
+        <v>2515090.9693</v>
       </c>
       <c r="G61" t="n">
-        <v>-13678981.31709999</v>
+        <v>5054571.534200004</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2618,8 +2730,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2630,22 +2748,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5714</v>
+        <v>0.5716</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5707</v>
+        <v>0.5716</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5714</v>
+        <v>0.5716</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5707</v>
+        <v>0.5716</v>
       </c>
       <c r="F62" t="n">
-        <v>2170805</v>
+        <v>3466650.1471</v>
       </c>
       <c r="G62" t="n">
-        <v>-15849786.31709999</v>
+        <v>1587921.387100004</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2654,8 +2772,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2666,22 +2790,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.573</v>
+        <v>0.5712</v>
       </c>
       <c r="C63" t="n">
-        <v>0.573</v>
+        <v>0.5704</v>
       </c>
       <c r="D63" t="n">
-        <v>0.573</v>
+        <v>0.5712</v>
       </c>
       <c r="E63" t="n">
-        <v>0.573</v>
+        <v>0.5704</v>
       </c>
       <c r="F63" t="n">
-        <v>2998666.5142</v>
+        <v>1141932.5521</v>
       </c>
       <c r="G63" t="n">
-        <v>-12851119.80289999</v>
+        <v>445988.8350000042</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2690,8 +2814,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2702,22 +2832,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5717</v>
+        <v>0.5739</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5717</v>
+        <v>0.5739</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5717</v>
+        <v>0.5739</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5717</v>
+        <v>0.5739</v>
       </c>
       <c r="F64" t="n">
-        <v>2435735.1718</v>
+        <v>3443507.559</v>
       </c>
       <c r="G64" t="n">
-        <v>-15286854.97469999</v>
+        <v>3889496.394000004</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2726,8 +2856,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2738,22 +2874,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5748</v>
+        <v>0.5707</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5748</v>
+        <v>0.5707</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5748</v>
+        <v>0.5707</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5748</v>
+        <v>0.5707</v>
       </c>
       <c r="F65" t="n">
-        <v>1363.8138</v>
+        <v>3679544.6403</v>
       </c>
       <c r="G65" t="n">
-        <v>-15285491.16089999</v>
+        <v>209951.753700004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2762,8 +2898,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2774,22 +2916,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5748</v>
+        <v>0.5715</v>
       </c>
       <c r="C66" t="n">
-        <v>0.575</v>
+        <v>0.5715</v>
       </c>
       <c r="D66" t="n">
-        <v>0.575</v>
+        <v>0.5715</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5748</v>
+        <v>0.5715</v>
       </c>
       <c r="F66" t="n">
-        <v>3358818.8575</v>
+        <v>1102222.1889</v>
       </c>
       <c r="G66" t="n">
-        <v>-11926672.30339999</v>
+        <v>1312173.942600004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2798,8 +2940,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2810,22 +2958,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5725</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5725</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5725</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5725</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>1461384.5324</v>
+        <v>890.6244</v>
       </c>
       <c r="G67" t="n">
-        <v>-13388056.83579999</v>
+        <v>1313064.567000004</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2834,8 +2982,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2846,22 +3000,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5742</v>
+        <v>0.5758</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5742</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5742</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5742</v>
+        <v>0.5758</v>
       </c>
       <c r="F68" t="n">
-        <v>3023036.6736</v>
+        <v>2628711.6487</v>
       </c>
       <c r="G68" t="n">
-        <v>-10365020.16219999</v>
+        <v>1313064.567000004</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2870,8 +3024,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2882,22 +3042,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5709</v>
+        <v>0.5722</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5709</v>
+        <v>0.5722</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5709</v>
+        <v>0.5722</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5709</v>
+        <v>0.5722</v>
       </c>
       <c r="F69" t="n">
-        <v>2969397.949</v>
+        <v>1148877.1641</v>
       </c>
       <c r="G69" t="n">
-        <v>-13334418.11119999</v>
+        <v>164187.4029000041</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2906,8 +3066,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3084,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5714</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5714</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5714</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5714</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>3977225.8609</v>
+        <v>890.3419</v>
       </c>
       <c r="G70" t="n">
-        <v>-9357192.250299994</v>
+        <v>165077.7448000041</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2942,8 +3108,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2954,22 +3126,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5738</v>
+        <v>0.5787</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5738</v>
+        <v>0.5787</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5738</v>
+        <v>0.5787</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5738</v>
+        <v>0.5787</v>
       </c>
       <c r="F71" t="n">
-        <v>2914722.1039</v>
+        <v>3907175.5574</v>
       </c>
       <c r="G71" t="n">
-        <v>-6442470.146399993</v>
+        <v>-3742097.812599996</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2978,8 +3150,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3002,10 +3180,10 @@
         <v>0.5722</v>
       </c>
       <c r="F72" t="n">
-        <v>3155605.3095</v>
+        <v>2557704.5616</v>
       </c>
       <c r="G72" t="n">
-        <v>-9598075.455899993</v>
+        <v>-6299802.374199996</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3014,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3026,22 +3210,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5724</v>
+        <v>0.5731000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5724</v>
+        <v>0.5731000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5724</v>
+        <v>0.5731000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5724</v>
+        <v>0.5731000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>1717273.9639</v>
+        <v>2295927.2393</v>
       </c>
       <c r="G73" t="n">
-        <v>-7880801.491999993</v>
+        <v>-4003875.134899996</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3050,8 +3234,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3062,22 +3252,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.571</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.571</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.571</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.571</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>3118748.6554</v>
+        <v>899.2386</v>
       </c>
       <c r="G74" t="n">
-        <v>-10999550.14739999</v>
+        <v>-4002975.896299996</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3086,8 +3276,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3098,22 +3294,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5747</v>
+        <v>0.5788</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5747</v>
+        <v>0.5788</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5747</v>
+        <v>0.5788</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5747</v>
+        <v>0.5788</v>
       </c>
       <c r="F75" t="n">
-        <v>3887967.8578</v>
+        <v>2308142.5759</v>
       </c>
       <c r="G75" t="n">
-        <v>-7111582.289599994</v>
+        <v>-6311118.472199996</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3122,8 +3318,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3134,22 +3336,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5709</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5709</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5709</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5709</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>3704504.1817</v>
+        <v>900</v>
       </c>
       <c r="G76" t="n">
-        <v>-10816086.47129999</v>
+        <v>-6310218.472199996</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3158,8 +3360,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3170,22 +3378,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.575</v>
+        <v>0.5743</v>
       </c>
       <c r="C77" t="n">
-        <v>0.575</v>
+        <v>0.5743</v>
       </c>
       <c r="D77" t="n">
-        <v>0.575</v>
+        <v>0.5743</v>
       </c>
       <c r="E77" t="n">
-        <v>0.575</v>
+        <v>0.5743</v>
       </c>
       <c r="F77" t="n">
-        <v>5169.7538</v>
+        <v>2221689.8317</v>
       </c>
       <c r="G77" t="n">
-        <v>-10810916.7175</v>
+        <v>-8531908.303899996</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3194,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3218,10 +3432,10 @@
         <v>0.5729</v>
       </c>
       <c r="F78" t="n">
-        <v>3717970.2502</v>
+        <v>2831780.1377</v>
       </c>
       <c r="G78" t="n">
-        <v>-14528886.9677</v>
+        <v>-11363688.44159999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3230,8 +3444,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3242,22 +3462,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5736</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5736</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5736</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5736</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>2776480.4759</v>
+        <v>111552.302</v>
       </c>
       <c r="G79" t="n">
-        <v>-11752406.4918</v>
+        <v>-11475240.74359999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3266,8 +3486,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3278,22 +3504,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5716</v>
+        <v>0.5707</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5716</v>
+        <v>0.5707</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5716</v>
+        <v>0.5707</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5716</v>
+        <v>0.5707</v>
       </c>
       <c r="F80" t="n">
-        <v>2887708.1143</v>
+        <v>63407.031</v>
       </c>
       <c r="G80" t="n">
-        <v>-14640114.60609999</v>
+        <v>-11538647.77459999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3302,8 +3528,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3314,22 +3546,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.575</v>
+        <v>0.5704</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5715</v>
+        <v>0.5704</v>
       </c>
       <c r="D81" t="n">
-        <v>0.575</v>
+        <v>0.5704</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5715</v>
+        <v>0.5704</v>
       </c>
       <c r="F81" t="n">
-        <v>948229.6561</v>
+        <v>170863.4061</v>
       </c>
       <c r="G81" t="n">
-        <v>-15588344.26219999</v>
+        <v>-11709511.18069999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3338,8 +3570,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3350,22 +3588,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5712</v>
+        <v>0.5732</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5712</v>
+        <v>0.5732</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5712</v>
+        <v>0.5732</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5712</v>
+        <v>0.5732</v>
       </c>
       <c r="F82" t="n">
-        <v>3864415.7179</v>
+        <v>1495102.1362</v>
       </c>
       <c r="G82" t="n">
-        <v>-19452759.98009999</v>
+        <v>-10214409.04449999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3374,8 +3612,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3386,22 +3630,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.571</v>
+        <v>0.5707</v>
       </c>
       <c r="C83" t="n">
-        <v>0.571</v>
+        <v>0.5707</v>
       </c>
       <c r="D83" t="n">
-        <v>0.571</v>
+        <v>0.5707</v>
       </c>
       <c r="E83" t="n">
-        <v>0.571</v>
+        <v>0.5707</v>
       </c>
       <c r="F83" t="n">
-        <v>1420909.1007</v>
+        <v>3889720.2531</v>
       </c>
       <c r="G83" t="n">
-        <v>-20873669.08079999</v>
+        <v>-14104129.29759999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3410,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3422,22 +3672,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5707</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5707</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5707</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5707</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6714</v>
+        <v>934.7689</v>
       </c>
       <c r="G84" t="n">
-        <v>-20873669.75219999</v>
+        <v>-14103194.52869999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3446,8 +3696,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3458,22 +3714,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5746</v>
+        <v>0.5765</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5746</v>
+        <v>0.5765</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5746</v>
+        <v>0.5765</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5746</v>
+        <v>0.5765</v>
       </c>
       <c r="F85" t="n">
-        <v>2422623.6523</v>
+        <v>3414710.6019</v>
       </c>
       <c r="G85" t="n">
-        <v>-18451046.09989999</v>
+        <v>-17517905.13059999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3482,8 +3738,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3494,36 +3756,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5709</v>
+        <v>0.5772</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5709</v>
+        <v>0.5772</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5709</v>
+        <v>0.5772</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5709</v>
+        <v>0.5772</v>
       </c>
       <c r="F86" t="n">
-        <v>2311797.3973</v>
+        <v>923491.1436</v>
       </c>
       <c r="G86" t="n">
-        <v>-20762843.49719999</v>
+        <v>-16594413.98699999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.5746</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0.5746</v>
-      </c>
-      <c r="L86" t="inlineStr"/>
+        <v>0.5722</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3798,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5721000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>3577342.309</v>
+        <v>1270689.9765</v>
       </c>
       <c r="G87" t="n">
-        <v>-17185501.18819999</v>
+        <v>-17865103.96349999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3559,11 +3823,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0.5746</v>
+        <v>0.5722</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -3576,22 +3840,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5708</v>
+        <v>0.5712</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5708</v>
+        <v>0.5712</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5708</v>
+        <v>0.5712</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5708</v>
+        <v>0.5712</v>
       </c>
       <c r="F88" t="n">
-        <v>35001.2816</v>
+        <v>988</v>
       </c>
       <c r="G88" t="n">
-        <v>-17220502.46979999</v>
+        <v>-17866091.96349999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3601,11 +3865,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0.5746</v>
+        <v>0.5722</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -3618,22 +3882,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5713</v>
+        <v>0.5758</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5713</v>
+        <v>0.5758</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5713</v>
+        <v>0.5758</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5713</v>
+        <v>0.5758</v>
       </c>
       <c r="F89" t="n">
-        <v>4153810.0586</v>
+        <v>2450699.7555</v>
       </c>
       <c r="G89" t="n">
-        <v>-13066692.41119999</v>
+        <v>-15415392.20799999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3642,8 +3906,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3654,22 +3924,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5708</v>
+        <v>0.5739</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5708</v>
+        <v>0.577</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5708</v>
+        <v>0.577</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5708</v>
+        <v>0.5739</v>
       </c>
       <c r="F90" t="n">
-        <v>439769.8397</v>
+        <v>1736410.8909</v>
       </c>
       <c r="G90" t="n">
-        <v>-13506462.25089999</v>
+        <v>-13678981.31709999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3678,8 +3948,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3690,22 +3966,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5708</v>
+        <v>0.5714</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5708</v>
+        <v>0.5707</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5708</v>
+        <v>0.5714</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5708</v>
+        <v>0.5707</v>
       </c>
       <c r="F91" t="n">
-        <v>79254.9448</v>
+        <v>2170805</v>
       </c>
       <c r="G91" t="n">
-        <v>-13506462.25089999</v>
+        <v>-15849786.31709999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3714,8 +3990,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3726,22 +4008,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5708</v>
+        <v>0.573</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5708</v>
+        <v>0.573</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5708</v>
+        <v>0.573</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5708</v>
+        <v>0.573</v>
       </c>
       <c r="F92" t="n">
-        <v>5000</v>
+        <v>2998666.5142</v>
       </c>
       <c r="G92" t="n">
-        <v>-13506462.25089999</v>
+        <v>-12851119.80289999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3750,8 +4032,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3762,22 +4050,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5709</v>
+        <v>0.5717</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5818</v>
+        <v>0.5717</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5818</v>
+        <v>0.5717</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5709</v>
+        <v>0.5717</v>
       </c>
       <c r="F93" t="n">
-        <v>5227022.245</v>
+        <v>2435735.1718</v>
       </c>
       <c r="G93" t="n">
-        <v>-8279440.005899991</v>
+        <v>-15286854.97469999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3786,8 +4074,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3798,22 +4092,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5824</v>
+        <v>0.5748</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5824</v>
+        <v>0.5748</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5824</v>
+        <v>0.5748</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5824</v>
+        <v>0.5748</v>
       </c>
       <c r="F94" t="n">
-        <v>3921137.4045</v>
+        <v>1363.8138</v>
       </c>
       <c r="G94" t="n">
-        <v>-4358302.601399991</v>
+        <v>-15285491.16089999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3822,8 +4116,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3834,22 +4134,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5818</v>
+        <v>0.5748</v>
       </c>
       <c r="C95" t="n">
-        <v>0.583</v>
+        <v>0.575</v>
       </c>
       <c r="D95" t="n">
-        <v>0.583</v>
+        <v>0.575</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5708</v>
+        <v>0.5748</v>
       </c>
       <c r="F95" t="n">
-        <v>2201900.3376</v>
+        <v>3358818.8575</v>
       </c>
       <c r="G95" t="n">
-        <v>-2156402.263799991</v>
+        <v>-11926672.30339999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3858,8 +4158,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3870,22 +4176,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5729</v>
+        <v>0.5725</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5729</v>
+        <v>0.5725</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5729</v>
+        <v>0.5725</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5729</v>
+        <v>0.5725</v>
       </c>
       <c r="F96" t="n">
-        <v>903561.838</v>
+        <v>1461384.5324</v>
       </c>
       <c r="G96" t="n">
-        <v>-3059964.101799991</v>
+        <v>-13388056.83579999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3894,8 +4200,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3906,22 +4218,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5742</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5742</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5742</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5742</v>
       </c>
       <c r="F97" t="n">
-        <v>2119739.0436</v>
+        <v>3023036.6736</v>
       </c>
       <c r="G97" t="n">
-        <v>-5179703.14539999</v>
+        <v>-10365020.16219999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3930,8 +4242,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3942,22 +4260,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.574</v>
+        <v>0.5709</v>
       </c>
       <c r="C98" t="n">
-        <v>0.574</v>
+        <v>0.5709</v>
       </c>
       <c r="D98" t="n">
-        <v>0.574</v>
+        <v>0.5709</v>
       </c>
       <c r="E98" t="n">
-        <v>0.574</v>
+        <v>0.5709</v>
       </c>
       <c r="F98" t="n">
-        <v>4197135.4353</v>
+        <v>2969397.949</v>
       </c>
       <c r="G98" t="n">
-        <v>-982567.7100999905</v>
+        <v>-13334418.11119999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3966,8 +4284,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3978,22 +4302,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.573</v>
+        <v>0.5714</v>
       </c>
       <c r="C99" t="n">
-        <v>0.573</v>
+        <v>0.5714</v>
       </c>
       <c r="D99" t="n">
-        <v>0.573</v>
+        <v>0.5714</v>
       </c>
       <c r="E99" t="n">
-        <v>0.573</v>
+        <v>0.5714</v>
       </c>
       <c r="F99" t="n">
-        <v>1959295.2145</v>
+        <v>3977225.8609</v>
       </c>
       <c r="G99" t="n">
-        <v>-2941862.92459999</v>
+        <v>-9357192.250299994</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4002,8 +4326,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +4344,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5739</v>
+        <v>0.5738</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5739</v>
+        <v>0.5738</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5739</v>
+        <v>0.5738</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5739</v>
+        <v>0.5738</v>
       </c>
       <c r="F100" t="n">
-        <v>3599196.6774</v>
+        <v>2914722.1039</v>
       </c>
       <c r="G100" t="n">
-        <v>657333.7528000097</v>
+        <v>-6442470.146399993</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4038,8 +4368,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4050,22 +4386,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5734</v>
+        <v>0.5722</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5734</v>
+        <v>0.5722</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5734</v>
+        <v>0.5722</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5734</v>
+        <v>0.5722</v>
       </c>
       <c r="F101" t="n">
-        <v>1076483.0077</v>
+        <v>3155605.3095</v>
       </c>
       <c r="G101" t="n">
-        <v>-419149.2548999903</v>
+        <v>-9598075.455899993</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4074,8 +4410,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4086,22 +4428,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.572</v>
+        <v>0.5724</v>
       </c>
       <c r="C102" t="n">
-        <v>0.572</v>
+        <v>0.5724</v>
       </c>
       <c r="D102" t="n">
-        <v>0.572</v>
+        <v>0.5724</v>
       </c>
       <c r="E102" t="n">
-        <v>0.572</v>
+        <v>0.5724</v>
       </c>
       <c r="F102" t="n">
-        <v>3763043</v>
+        <v>1717273.9639</v>
       </c>
       <c r="G102" t="n">
-        <v>-4182192.25489999</v>
+        <v>-7880801.491999993</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4110,8 +4452,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4122,22 +4470,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5724</v>
+        <v>0.571</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5724</v>
+        <v>0.571</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5724</v>
+        <v>0.571</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5724</v>
+        <v>0.571</v>
       </c>
       <c r="F103" t="n">
-        <v>1122864.0253</v>
+        <v>3118748.6554</v>
       </c>
       <c r="G103" t="n">
-        <v>-3059328.22959999</v>
+        <v>-10999550.14739999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4146,8 +4494,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4158,36 +4512,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5734</v>
+        <v>0.5747</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5734</v>
+        <v>0.5747</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5734</v>
+        <v>0.5747</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5734</v>
+        <v>0.5747</v>
       </c>
       <c r="F104" t="n">
-        <v>2985165.1237</v>
+        <v>3887967.8578</v>
       </c>
       <c r="G104" t="n">
-        <v>-74163.10589999007</v>
+        <v>-7111582.289599994</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.5724</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
+        <v>0.5722</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4198,22 +4554,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5733</v>
+        <v>0.5709</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5733</v>
+        <v>0.5709</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5733</v>
+        <v>0.5709</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5733</v>
+        <v>0.5709</v>
       </c>
       <c r="F105" t="n">
-        <v>906889.6884</v>
+        <v>3704504.1817</v>
       </c>
       <c r="G105" t="n">
-        <v>-981052.7942999901</v>
+        <v>-10816086.47129999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4223,11 +4579,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.5724</v>
+        <v>0.5722</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4240,22 +4596,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5735</v>
+        <v>0.575</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5735</v>
+        <v>0.575</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5735</v>
+        <v>0.575</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5735</v>
+        <v>0.575</v>
       </c>
       <c r="F106" t="n">
-        <v>2646778.008</v>
+        <v>5169.7538</v>
       </c>
       <c r="G106" t="n">
-        <v>1665725.21370001</v>
+        <v>-10810916.7175</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4265,11 +4621,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.5724</v>
+        <v>0.5722</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -4282,22 +4638,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5729</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5729</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5729</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5729</v>
       </c>
       <c r="F107" t="n">
-        <v>2449170.7755</v>
+        <v>3717970.2502</v>
       </c>
       <c r="G107" t="n">
-        <v>-783445.56179999</v>
+        <v>-14528886.9677</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4306,8 +4662,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4680,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5725</v>
+        <v>0.5736</v>
       </c>
       <c r="C108" t="n">
-        <v>0.574</v>
+        <v>0.5736</v>
       </c>
       <c r="D108" t="n">
-        <v>0.574</v>
+        <v>0.5736</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5725</v>
+        <v>0.5736</v>
       </c>
       <c r="F108" t="n">
-        <v>966541.0031</v>
+        <v>2776480.4759</v>
       </c>
       <c r="G108" t="n">
-        <v>183095.44130001</v>
+        <v>-11752406.4918</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4342,8 +4704,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4354,22 +4722,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5722</v>
+        <v>0.5716</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5722</v>
+        <v>0.5716</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5722</v>
+        <v>0.5716</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5722</v>
+        <v>0.5716</v>
       </c>
       <c r="F109" t="n">
-        <v>2272879.032</v>
+        <v>2887708.1143</v>
       </c>
       <c r="G109" t="n">
-        <v>-2089783.59069999</v>
+        <v>-14640114.60609999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4378,8 +4746,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4390,22 +4764,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5796</v>
+        <v>0.575</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5796</v>
+        <v>0.5715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5796</v>
+        <v>0.575</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5796</v>
+        <v>0.5715</v>
       </c>
       <c r="F110" t="n">
-        <v>2184890.9978</v>
+        <v>948229.6561</v>
       </c>
       <c r="G110" t="n">
-        <v>95107.40710000973</v>
+        <v>-15588344.26219999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4414,8 +4788,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4426,36 +4806,1260 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3864415.7179</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-19452759.98009999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1420909.1007</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-20873669.08079999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5707</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.5707</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5707</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5707</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.6714</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-20873669.75219999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5746</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.5746</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.5746</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5746</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2422623.6523</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-18451046.09989999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5709</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5709</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.5709</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5709</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2311797.3973</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-20762843.49719999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3577342.309</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-17185501.18819999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="F117" t="n">
+        <v>35001.2816</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-17220502.46979999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4153810.0586</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-13066692.41119999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="F119" t="n">
+        <v>439769.8397</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-13506462.25089999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="F120" t="n">
+        <v>79254.9448</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-13506462.25089999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-13506462.25089999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5709</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5818</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5818</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5709</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5227022.245</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-8279440.005899991</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5824</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5824</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5824</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5824</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3921137.4045</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4358302.601399991</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5818</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2201900.3376</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2156402.263799991</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="F125" t="n">
+        <v>903561.838</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-3059964.101799991</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2119739.0436</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-5179703.14539999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4197135.4353</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-982567.7100999905</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1959295.2145</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2941862.92459999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.5739</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5739</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5739</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5739</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3599196.6774</v>
+      </c>
+      <c r="G129" t="n">
+        <v>657333.7528000097</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1076483.0077</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-419149.2548999903</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3763043</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4182192.25489999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1122864.0253</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-3059328.22959999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2985165.1237</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-74163.10589999007</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.5733</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5733</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.5733</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5733</v>
+      </c>
+      <c r="F134" t="n">
+        <v>906889.6884</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-981052.7942999901</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2646778.008</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1665725.21370001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2449170.7755</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-783445.56179999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.5725</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5725</v>
+      </c>
+      <c r="F137" t="n">
+        <v>966541.0031</v>
+      </c>
+      <c r="G137" t="n">
+        <v>183095.44130001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2272879.032</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2089783.59069999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2184890.9978</v>
+      </c>
+      <c r="G139" t="n">
+        <v>95107.40710000973</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>0.5764</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C140" t="n">
         <v>0.5764</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D140" t="n">
         <v>0.5764</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E140" t="n">
         <v>0.5764</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F140" t="n">
         <v>2330655.3461</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G140" t="n">
         <v>-2235547.93899999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest APIS.xlsx
+++ b/BackTest/2020-01-23 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-3222457.371799996</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>10740132.5313</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>12481126.2364</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,20 +1674,13 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1830,750 +1707,660 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4235.0671</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10944380.6182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F42" t="n">
+        <v>54702.7973</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10944380.6182</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1246564.4505</v>
+      </c>
+      <c r="G43" t="n">
+        <v>12190945.0687</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>0.5724</v>
       </c>
-      <c r="K40" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="C44" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3317565.3154</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8873379.753300004</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1252580.9559</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7620798.797400003</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5818</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5818</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2360107</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9980905.797400003</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4235.0671</v>
-      </c>
-      <c r="G41" t="n">
-        <v>10944380.6182</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5818</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5818</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1326157.5436</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9980905.797400003</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F42" t="n">
-        <v>54702.7973</v>
-      </c>
-      <c r="G42" t="n">
-        <v>10944380.6182</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5760999999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5760999999999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5760999999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5760999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3224262.8052</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6756642.992200004</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1438294.5408</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5318348.451400004</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>0.5726</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1246564.4505</v>
-      </c>
-      <c r="G43" t="n">
-        <v>12190945.0687</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3317565.3154</v>
-      </c>
-      <c r="G44" t="n">
-        <v>8873379.753300004</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5704</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5704</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2727113.2791</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2591235.172300004</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>0.5726</v>
       </c>
-      <c r="K44" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5713</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5713</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5713</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5713</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1252580.9559</v>
-      </c>
-      <c r="G45" t="n">
-        <v>7620798.797400003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5745</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5745</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5745</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5745</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1872196.4042</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4463431.576500004</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5713</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5818</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.5818</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5713</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2360107</v>
-      </c>
-      <c r="G46" t="n">
-        <v>9980905.797400003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5713</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1268155.877</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5731587.453500004</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5818</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5818</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1326157.5436</v>
-      </c>
-      <c r="G47" t="n">
-        <v>9980905.797400003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5794</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5794</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5794</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5794</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2860966.0236</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8592553.477100004</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.5760999999999999</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5760999999999999</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5760999999999999</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5760999999999999</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3224262.8052</v>
-      </c>
-      <c r="G48" t="n">
-        <v>6756642.992200004</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3262067.4718</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5330486.005300004</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.5717</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5717</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5717</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5717</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1438294.5408</v>
-      </c>
-      <c r="G49" t="n">
-        <v>5318348.451400004</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5704</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5704</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2360967</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2969519.005300004</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.5712</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5704</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5712</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5704</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2727113.2791</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2591235.172300004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5755</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5755</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5755</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5755</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3731142.4059</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6700661.411200004</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.5745</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5745</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5745</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5745</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1872196.4042</v>
-      </c>
-      <c r="G51" t="n">
-        <v>4463431.576500004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>886.3672</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6701547.778400004</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.5767</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5767</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5767</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5767</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1268155.877</v>
-      </c>
-      <c r="G52" t="n">
-        <v>5731587.453500004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5794</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5794</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5794</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5794</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2860966.0236</v>
-      </c>
-      <c r="G53" t="n">
-        <v>8592553.477100004</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3262067.4718</v>
-      </c>
-      <c r="G54" t="n">
-        <v>5330486.005300004</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5712</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5704</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5712</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5704</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2360967</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2969519.005300004</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.5755</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5755</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5755</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.5755</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3731142.4059</v>
-      </c>
-      <c r="G56" t="n">
-        <v>6700661.411200004</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="F57" t="n">
-        <v>886.3672</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6701547.778400004</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2598,24 +2385,21 @@
         <v>4644057.582600004</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>0.9967464198393293</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2642,22 +2426,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2684,22 +2459,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2726,22 +2492,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2768,22 +2525,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2810,22 +2558,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2852,22 +2591,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2892,24 +2622,15 @@
         <v>209951.753700004</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2934,24 +2655,15 @@
         <v>1312173.942600004</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2976,24 +2688,15 @@
         <v>1313064.567000004</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3020,22 +2723,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3062,22 +2756,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3104,22 +2789,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3146,22 +2822,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3188,22 +2855,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3230,22 +2888,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3272,22 +2921,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3314,22 +2954,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3356,22 +2987,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3398,22 +3020,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3440,22 +3053,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3482,22 +3086,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3524,22 +3119,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3566,22 +3152,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3608,22 +3185,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3650,22 +3218,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3692,22 +3251,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3734,22 +3284,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3776,22 +3317,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3818,22 +3350,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3860,22 +3383,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3902,22 +3416,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3944,22 +3449,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3986,22 +3482,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4028,22 +3515,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4070,22 +3548,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4112,22 +3581,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4154,22 +3614,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4196,22 +3647,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4238,22 +3680,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4280,22 +3713,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4322,22 +3746,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4364,22 +3779,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4406,22 +3812,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4448,22 +3845,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4490,22 +3878,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4532,22 +3911,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4574,22 +3944,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4616,22 +3977,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4658,22 +4010,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4700,22 +4043,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4742,22 +4076,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4784,22 +4109,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4826,22 +4142,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4868,22 +4175,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4910,22 +4208,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4952,22 +4241,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4994,22 +4274,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5036,22 +4307,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5078,22 +4340,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5120,22 +4373,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5162,22 +4406,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5204,22 +4439,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5246,22 +4472,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5288,22 +4505,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5330,22 +4538,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5372,22 +4571,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5414,22 +4604,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5456,22 +4637,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5498,22 +4670,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5540,22 +4703,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5582,22 +4736,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5624,22 +4769,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5666,22 +4802,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5708,22 +4835,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5750,22 +4868,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5792,22 +4901,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5834,22 +4934,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5876,22 +4967,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5918,22 +5000,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5960,22 +5033,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6002,22 +5066,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6044,24 +5099,15 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest APIS.xlsx
+++ b/BackTest/2020-01-23 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,7 +1243,7 @@
         <v>-3222457.371799996</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>10740132.5313</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,10 +1639,14 @@
         <v>12481126.2364</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5722</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1672,11 +1676,17 @@
         <v>15226055.5366</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1707,9 +1717,17 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1756,17 @@
         <v>10944380.6182</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1773,9 +1797,17 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1836,17 @@
         <v>12190945.0687</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,15 +1875,19 @@
         <v>8873379.753300004</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0.5726</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>0.5722</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,17 +1916,15 @@
         <v>7620798.797400003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.5724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -1915,17 +1955,15 @@
         <v>9980905.797400003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.5713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1960,7 +1998,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -1995,11 +2033,11 @@
         <v>6756642.992200004</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2034,11 +2072,11 @@
         <v>5318348.451400004</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2073,11 +2111,11 @@
         <v>2591235.172300004</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2116,7 +2154,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2151,11 +2189,11 @@
         <v>5731587.453500004</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2190,11 +2228,11 @@
         <v>8592553.477100004</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2229,11 +2267,11 @@
         <v>5330486.005300004</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2272,7 +2310,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2307,11 +2345,11 @@
         <v>6700661.411200004</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2350,7 +2388,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2385,118 +2423,136 @@
         <v>4644057.582600004</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>0.5726</v>
+        <v>0.5722</v>
       </c>
       <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5737</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5737</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5737</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5737</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2924726.3601</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7568783.942700004</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>878.5608</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7569662.503500004</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2515090.9693</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5054571.534200004</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>0.9967464198393293</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.5737</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5737</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5737</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5737</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2924726.3601</v>
-      </c>
-      <c r="G59" t="n">
-        <v>7568783.942700004</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="F60" t="n">
-        <v>878.5608</v>
-      </c>
-      <c r="G60" t="n">
-        <v>7569662.503500004</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.5788</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5788</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5788</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.5788</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2515090.9693</v>
-      </c>
-      <c r="G61" t="n">
-        <v>5054571.534200004</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>1.006534428521496</v>
       </c>
       <c r="M61" t="inlineStr"/>
     </row>
@@ -2523,7 +2579,7 @@
         <v>1587921.387100004</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2622,7 +2678,7 @@
         <v>209951.753700004</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2655,7 +2711,7 @@
         <v>1312173.942600004</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2688,7 +2744,7 @@
         <v>1313064.567000004</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2853,7 +2909,7 @@
         <v>-6299802.374199996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3018,7 +3074,7 @@
         <v>-8531908.303899996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -5108,6 +5164,6 @@
       <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest APIS.xlsx
+++ b/BackTest/2020-01-23 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,10 +1111,14 @@
         <v>-5491906.671399998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5729</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1147,8 +1151,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1190,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1639,14 +1655,10 @@
         <v>12481126.2364</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1679,14 +1691,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1715,138 +1721,122 @@
         <v>10944380.6182</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4235.0671</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10944380.6182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F42" t="n">
+        <v>54702.7973</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10944380.6182</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1246564.4505</v>
+      </c>
+      <c r="G43" t="n">
+        <v>12190945.0687</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4235.0671</v>
-      </c>
-      <c r="G41" t="n">
-        <v>10944380.6182</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F42" t="n">
-        <v>54702.7973</v>
-      </c>
-      <c r="G42" t="n">
-        <v>10944380.6182</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1246564.4505</v>
-      </c>
-      <c r="G43" t="n">
-        <v>12190945.0687</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1881,7 +1871,7 @@
         <v>0.5726</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1920,7 +1910,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1955,11 +1945,13 @@
         <v>9980905.797400003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5713</v>
+      </c>
       <c r="J46" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -1998,7 +1990,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2037,7 +2029,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2076,7 +2068,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2115,7 +2107,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2154,7 +2146,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2193,7 +2185,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2232,7 +2224,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2271,7 +2263,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2310,7 +2302,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2349,7 +2341,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2388,7 +2380,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2427,7 +2419,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2466,7 +2458,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2505,7 +2497,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>0.5722</v>
+        <v>0.572</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2540,580 +2532,682 @@
         <v>5054571.534200004</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5716</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5716</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5716</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5716</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3466650.1471</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1587921.387100004</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5704</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5704</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1141932.5521</v>
+      </c>
+      <c r="G63" t="n">
+        <v>445988.8350000042</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5739</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5739</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5739</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5739</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3443507.559</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3889496.394000004</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5707</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5707</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5707</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.5707</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3679544.6403</v>
+      </c>
+      <c r="G65" t="n">
+        <v>209951.753700004</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5715</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5715</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5715</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5715</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1102222.1889</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1312173.942600004</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>890.6244</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1313064.567000004</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5758</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5758</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2628711.6487</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1313064.567000004</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>0.5722</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="C69" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1148877.1641</v>
+      </c>
+      <c r="G69" t="n">
+        <v>164187.4029000041</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>890.3419</v>
+      </c>
+      <c r="G70" t="n">
+        <v>165077.7448000041</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5787</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5787</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5787</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5787</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3907175.5574</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-3742097.812599996</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2557704.5616</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-6299802.374199996</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2295927.2393</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-4003875.134899996</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="F74" t="n">
+        <v>899.2386</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-4002975.896299996</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2308142.5759</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-6311118.472199996</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="F76" t="n">
+        <v>900</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-6310218.472199996</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5743</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5743</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5743</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5743</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2221689.8317</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-8531908.303899996</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2831780.1377</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-11363688.44159999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1.006534428521496</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.5716</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5716</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5716</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.5716</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3466650.1471</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1587921.387100004</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.5712</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5704</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5712</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.5704</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1141932.5521</v>
-      </c>
-      <c r="G63" t="n">
-        <v>445988.8350000042</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.5739</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5739</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.5739</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5739</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3443507.559</v>
-      </c>
-      <c r="G64" t="n">
-        <v>3889496.394000004</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.5707</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5707</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5707</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.5707</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3679544.6403</v>
-      </c>
-      <c r="G65" t="n">
-        <v>209951.753700004</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.5715</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5715</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.5715</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.5715</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1102222.1889</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1312173.942600004</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="F67" t="n">
-        <v>890.6244</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1313064.567000004</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.5758</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.5758</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2628711.6487</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1313064.567000004</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1148877.1641</v>
-      </c>
-      <c r="G69" t="n">
-        <v>164187.4029000041</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="F70" t="n">
-        <v>890.3419</v>
-      </c>
-      <c r="G70" t="n">
-        <v>165077.7448000041</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.5787</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.5787</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.5787</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.5787</v>
-      </c>
-      <c r="F71" t="n">
-        <v>3907175.5574</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-3742097.812599996</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2557704.5616</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-6299802.374199996</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.5731000000000001</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.5731000000000001</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.5731000000000001</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.5731000000000001</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2295927.2393</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-4003875.134899996</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="F74" t="n">
-        <v>899.2386</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-4002975.896299996</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.5788</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.5788</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.5788</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.5788</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2308142.5759</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-6311118.472199996</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.5790999999999999</v>
-      </c>
-      <c r="F76" t="n">
-        <v>900</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-6310218.472199996</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.5743</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.5743</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.5743</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.5743</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2221689.8317</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-8531908.303899996</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2831780.1377</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-11363688.44159999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0.9965734265734266</v>
       </c>
       <c r="M78" t="inlineStr"/>
     </row>
@@ -3173,7 +3267,7 @@
         <v>-11538647.77459999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3239,7 +3333,7 @@
         <v>-10214409.04449999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3305,7 +3399,7 @@
         <v>-14103194.52869999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3338,7 +3432,7 @@
         <v>-17517905.13059999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3371,7 +3465,7 @@
         <v>-16594413.98699999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3437,7 +3531,7 @@
         <v>-17866091.96349999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3503,7 +3597,7 @@
         <v>-13678981.31709999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3833,7 +3927,7 @@
         <v>-6442470.146399993</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -5164,6 +5258,6 @@
       <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest APIS.xlsx
+++ b/BackTest/2020-01-23 BackTest APIS.xlsx
@@ -1078,10 +1078,14 @@
         <v>-2178028.382199998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5708</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1111,15 +1115,17 @@
         <v>-5491906.671399998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.5729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>0.5708</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1152,7 +1158,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.5729</v>
+        <v>0.5708</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1190,14 +1196,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1589,10 +1589,14 @@
         <v>10740132.5313</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5729</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1625,8 +1629,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1665,17 @@
         <v>12481126.2364</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1688,10 +1704,14 @@
         <v>15226055.5366</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5722</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1721,11 +1741,19 @@
         <v>10944380.6182</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1782,19 @@
         <v>10944380.6182</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1793,9 +1829,13 @@
         <v>0.572</v>
       </c>
       <c r="J42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>0.5722</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1830,11 +1870,11 @@
         <v>0.572</v>
       </c>
       <c r="J43" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1871,7 +1911,7 @@
         <v>0.5726</v>
       </c>
       <c r="J44" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1910,7 +1950,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1951,7 +1991,7 @@
         <v>0.5713</v>
       </c>
       <c r="J46" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -1990,7 +2030,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2025,11 +2065,11 @@
         <v>6756642.992200004</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2064,11 +2104,11 @@
         <v>5318348.451400004</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2103,11 +2143,11 @@
         <v>2591235.172300004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2146,7 +2186,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2185,7 +2225,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2224,7 +2264,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2263,7 +2303,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2302,7 +2342,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2341,7 +2381,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2380,7 +2420,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2419,7 +2459,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2458,7 +2498,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2497,7 +2537,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2536,7 +2576,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2575,7 +2615,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2614,7 +2654,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2653,7 +2693,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2692,7 +2732,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2731,7 +2771,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2770,7 +2810,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2809,7 +2849,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2848,7 +2888,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2887,7 +2927,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2926,7 +2966,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2965,7 +3005,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3004,7 +3044,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3043,7 +3083,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3082,7 +3122,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3121,7 +3161,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3160,7 +3200,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3195,19 +3235,19 @@
         <v>-11363688.44159999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>0.572</v>
+        <v>0.5722</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0.9965734265734266</v>
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr"/>
     </row>
@@ -3237,8 +3277,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3267,11 +3313,17 @@
         <v>-11538647.77459999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3303,8 +3355,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3333,11 +3391,17 @@
         <v>-10214409.04449999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3369,8 +3433,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3399,11 +3469,17 @@
         <v>-14103194.52869999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3432,11 +3508,17 @@
         <v>-17517905.13059999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3547,17 @@
         <v>-16594413.98699999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3501,8 +3589,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3531,11 +3625,17 @@
         <v>-17866091.96349999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3567,8 +3667,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3597,11 +3703,17 @@
         <v>-13678981.31709999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3633,8 +3745,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3666,8 +3784,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3699,8 +3823,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3732,8 +3862,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3765,8 +3901,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3798,8 +3940,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3831,8 +3979,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3864,8 +4018,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3897,8 +4057,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3927,11 +4093,17 @@
         <v>-6442470.146399993</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3963,8 +4135,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3996,8 +4174,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4029,8 +4213,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4252,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4095,8 +4291,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4128,8 +4330,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4161,8 +4369,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4194,8 +4408,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4227,8 +4447,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4260,8 +4486,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4293,8 +4525,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4326,8 +4564,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4359,8 +4603,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4392,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4425,8 +4681,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4458,8 +4720,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4491,8 +4759,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4524,8 +4798,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4557,8 +4837,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4590,8 +4876,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4623,8 +4915,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4656,8 +4954,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4689,8 +4993,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4722,8 +5032,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4755,8 +5071,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4788,8 +5110,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4821,8 +5149,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4854,8 +5188,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4887,8 +5227,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4920,8 +5266,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4953,8 +5305,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4986,8 +5344,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5019,8 +5383,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5052,8 +5422,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5085,8 +5461,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5118,8 +5500,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5151,8 +5539,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5184,8 +5578,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5617,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5250,8 +5656,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-23 BackTest APIS.xlsx
+++ b/BackTest/2020-01-23 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1578498.6336</v>
       </c>
       <c r="G2" t="n">
-        <v>2749835.184900001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1345213.8739</v>
       </c>
       <c r="G3" t="n">
-        <v>4095049.058800001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3484786.9053</v>
       </c>
       <c r="G4" t="n">
-        <v>7579835.964100001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3423628.4842</v>
       </c>
       <c r="G5" t="n">
-        <v>4156207.479900002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3828461.1068</v>
       </c>
       <c r="G6" t="n">
-        <v>327746.3731000014</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2133525.1248</v>
       </c>
       <c r="G7" t="n">
-        <v>2461271.497900001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2097888.9037</v>
       </c>
       <c r="G8" t="n">
-        <v>363382.5942000011</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3750126.4504</v>
       </c>
       <c r="G9" t="n">
-        <v>4113509.044600001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1682113.9069</v>
       </c>
       <c r="G10" t="n">
-        <v>2431395.137700001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>942.585</v>
       </c>
       <c r="G11" t="n">
-        <v>2432337.722700001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2833429.8858</v>
       </c>
       <c r="G12" t="n">
-        <v>-401092.1630999991</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2370355.1784</v>
       </c>
       <c r="G13" t="n">
-        <v>1969263.015300001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2862165.1766</v>
       </c>
       <c r="G14" t="n">
-        <v>-892902.1612999989</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3410473.5173</v>
       </c>
       <c r="G15" t="n">
-        <v>-4303375.678599998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2285581.1389</v>
       </c>
       <c r="G16" t="n">
-        <v>-2017794.539699998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1463805.9334</v>
       </c>
       <c r="G17" t="n">
-        <v>-3481600.473099998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2716955.7188</v>
       </c>
       <c r="G18" t="n">
-        <v>-764644.7542999983</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1102809.245</v>
       </c>
       <c r="G19" t="n">
-        <v>338164.4907000018</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2517104.4924</v>
       </c>
       <c r="G20" t="n">
-        <v>-2178940.001699998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,22 +1013,15 @@
         <v>911.6195</v>
       </c>
       <c r="G21" t="n">
-        <v>-2178028.382199998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.5708</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5708</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1112,96 +1043,93 @@
         <v>3313878.2892</v>
       </c>
       <c r="G22" t="n">
-        <v>-5491906.671399998</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0.5708</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>0.5729</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="F23" t="n">
+        <v>913.9074000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0.5729</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3582220.4167</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.5729</v>
       </c>
-      <c r="C23" t="n">
+      <c r="I24" t="n">
         <v>0.5729</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="F23" t="n">
-        <v>913.9074000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-5490992.763999998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0.5708</v>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3582220.4167</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-9073213.180699997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1223,18 +1151,15 @@
         <v>3483283.6093</v>
       </c>
       <c r="G25" t="n">
-        <v>-5589929.571399996</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1256,18 +1181,19 @@
         <v>2367472.1996</v>
       </c>
       <c r="G26" t="n">
-        <v>-3222457.371799996</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>0.5724</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5724</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1289,18 +1215,21 @@
         <v>4217313.5213</v>
       </c>
       <c r="G27" t="n">
-        <v>994856.149500004</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1322,18 +1251,21 @@
         <v>3967558.8666</v>
       </c>
       <c r="G28" t="n">
-        <v>4962415.016100004</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1355,18 +1287,15 @@
         <v>1362595.372</v>
       </c>
       <c r="G29" t="n">
-        <v>3599819.644100004</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1388,18 +1317,15 @@
         <v>1317301.4889</v>
       </c>
       <c r="G30" t="n">
-        <v>4917121.133000004</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1421,18 +1347,15 @@
         <v>4268145.1035</v>
       </c>
       <c r="G31" t="n">
-        <v>9185266.236500004</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1454,18 +1377,15 @@
         <v>1575431.7697</v>
       </c>
       <c r="G32" t="n">
-        <v>7609834.466800004</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1487,18 +1407,15 @@
         <v>2560734.407</v>
       </c>
       <c r="G33" t="n">
-        <v>10170568.8738</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1520,18 +1437,19 @@
         <v>2179800.0466</v>
       </c>
       <c r="G34" t="n">
-        <v>12350368.9204</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>0.5726</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5726</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1553,18 +1471,21 @@
         <v>911.6648</v>
       </c>
       <c r="G35" t="n">
-        <v>12351280.5852</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1586,22 +1507,21 @@
         <v>1611148.0539</v>
       </c>
       <c r="G36" t="n">
-        <v>10740132.5313</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0.5726</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1623,100 +1543,85 @@
         <v>1740993.7051</v>
       </c>
       <c r="G37" t="n">
-        <v>12481126.2364</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="K37" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3893638.9662</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2744929.3002</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3893638.9662</v>
-      </c>
-      <c r="G38" t="n">
-        <v>12481126.2364</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.5729</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2744929.3002</v>
-      </c>
-      <c r="G39" t="n">
-        <v>15226055.5366</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1738,26 +1643,21 @@
         <v>4281674.9184</v>
       </c>
       <c r="G40" t="n">
-        <v>10944380.6182</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0.5722</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1779,26 +1679,21 @@
         <v>4235.0671</v>
       </c>
       <c r="G41" t="n">
-        <v>10944380.6182</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0.5722</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1820,26 +1715,21 @@
         <v>54702.7973</v>
       </c>
       <c r="G42" t="n">
-        <v>10944380.6182</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0.5722</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1861,26 +1751,21 @@
         <v>1246564.4505</v>
       </c>
       <c r="G43" t="n">
-        <v>12190945.0687</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0.5722</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1902,26 +1787,21 @@
         <v>3317565.3154</v>
       </c>
       <c r="G44" t="n">
-        <v>8873379.753300004</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>0.5726</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0.5722</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1943,24 +1823,21 @@
         <v>1252580.9559</v>
       </c>
       <c r="G45" t="n">
-        <v>7620798.797400003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1982,26 +1859,21 @@
         <v>2360107</v>
       </c>
       <c r="G46" t="n">
-        <v>9980905.797400003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>0.5713</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0.5722</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,24 +1895,21 @@
         <v>1326157.5436</v>
       </c>
       <c r="G47" t="n">
-        <v>9980905.797400003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2062,24 +1931,21 @@
         <v>3224262.8052</v>
       </c>
       <c r="G48" t="n">
-        <v>6756642.992200004</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2101,24 +1967,21 @@
         <v>1438294.5408</v>
       </c>
       <c r="G49" t="n">
-        <v>5318348.451400004</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2140,24 +2003,21 @@
         <v>2727113.2791</v>
       </c>
       <c r="G50" t="n">
-        <v>2591235.172300004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2179,24 +2039,21 @@
         <v>1872196.4042</v>
       </c>
       <c r="G51" t="n">
-        <v>4463431.576500004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2218,24 +2075,21 @@
         <v>1268155.877</v>
       </c>
       <c r="G52" t="n">
-        <v>5731587.453500004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2257,24 +2111,21 @@
         <v>2860966.0236</v>
       </c>
       <c r="G53" t="n">
-        <v>8592553.477100004</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2296,24 +2147,21 @@
         <v>3262067.4718</v>
       </c>
       <c r="G54" t="n">
-        <v>5330486.005300004</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2335,24 +2183,21 @@
         <v>2360967</v>
       </c>
       <c r="G55" t="n">
-        <v>2969519.005300004</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2374,24 +2219,21 @@
         <v>3731142.4059</v>
       </c>
       <c r="G56" t="n">
-        <v>6700661.411200004</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2413,24 +2255,21 @@
         <v>886.3672</v>
       </c>
       <c r="G57" t="n">
-        <v>6701547.778400004</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2452,24 +2291,21 @@
         <v>2057490.1958</v>
       </c>
       <c r="G58" t="n">
-        <v>4644057.582600004</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2491,24 +2327,21 @@
         <v>2924726.3601</v>
       </c>
       <c r="G59" t="n">
-        <v>7568783.942700004</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K59" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0.9976214610276127</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2530,24 +2363,15 @@
         <v>878.5608</v>
       </c>
       <c r="G60" t="n">
-        <v>7569662.503500004</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2569,24 +2393,15 @@
         <v>2515090.9693</v>
       </c>
       <c r="G61" t="n">
-        <v>5054571.534200004</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2608,24 +2423,15 @@
         <v>3466650.1471</v>
       </c>
       <c r="G62" t="n">
-        <v>1587921.387100004</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2647,24 +2453,15 @@
         <v>1141932.5521</v>
       </c>
       <c r="G63" t="n">
-        <v>445988.8350000042</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2686,24 +2483,15 @@
         <v>3443507.559</v>
       </c>
       <c r="G64" t="n">
-        <v>3889496.394000004</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2725,24 +2513,15 @@
         <v>3679544.6403</v>
       </c>
       <c r="G65" t="n">
-        <v>209951.753700004</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2764,24 +2543,15 @@
         <v>1102222.1889</v>
       </c>
       <c r="G66" t="n">
-        <v>1312173.942600004</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2803,24 +2573,15 @@
         <v>890.6244</v>
       </c>
       <c r="G67" t="n">
-        <v>1313064.567000004</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2842,24 +2603,15 @@
         <v>2628711.6487</v>
       </c>
       <c r="G68" t="n">
-        <v>1313064.567000004</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2881,24 +2633,15 @@
         <v>1148877.1641</v>
       </c>
       <c r="G69" t="n">
-        <v>164187.4029000041</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2920,24 +2663,15 @@
         <v>890.3419</v>
       </c>
       <c r="G70" t="n">
-        <v>165077.7448000041</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2959,24 +2693,15 @@
         <v>3907175.5574</v>
       </c>
       <c r="G71" t="n">
-        <v>-3742097.812599996</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2998,24 +2723,15 @@
         <v>2557704.5616</v>
       </c>
       <c r="G72" t="n">
-        <v>-6299802.374199996</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3037,24 +2753,15 @@
         <v>2295927.2393</v>
       </c>
       <c r="G73" t="n">
-        <v>-4003875.134899996</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3076,24 +2783,15 @@
         <v>899.2386</v>
       </c>
       <c r="G74" t="n">
-        <v>-4002975.896299996</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3115,24 +2813,15 @@
         <v>2308142.5759</v>
       </c>
       <c r="G75" t="n">
-        <v>-6311118.472199996</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3154,24 +2843,15 @@
         <v>900</v>
       </c>
       <c r="G76" t="n">
-        <v>-6310218.472199996</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3193,24 +2873,15 @@
         <v>2221689.8317</v>
       </c>
       <c r="G77" t="n">
-        <v>-8531908.303899996</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3232,24 +2903,15 @@
         <v>2831780.1377</v>
       </c>
       <c r="G78" t="n">
-        <v>-11363688.44159999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3271,24 +2933,15 @@
         <v>111552.302</v>
       </c>
       <c r="G79" t="n">
-        <v>-11475240.74359999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3310,24 +2963,15 @@
         <v>63407.031</v>
       </c>
       <c r="G80" t="n">
-        <v>-11538647.77459999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3349,24 +2993,15 @@
         <v>170863.4061</v>
       </c>
       <c r="G81" t="n">
-        <v>-11709511.18069999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3388,24 +3023,15 @@
         <v>1495102.1362</v>
       </c>
       <c r="G82" t="n">
-        <v>-10214409.04449999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3427,24 +3053,15 @@
         <v>3889720.2531</v>
       </c>
       <c r="G83" t="n">
-        <v>-14104129.29759999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3466,24 +3083,15 @@
         <v>934.7689</v>
       </c>
       <c r="G84" t="n">
-        <v>-14103194.52869999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3505,24 +3113,15 @@
         <v>3414710.6019</v>
       </c>
       <c r="G85" t="n">
-        <v>-17517905.13059999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3544,24 +3143,15 @@
         <v>923491.1436</v>
       </c>
       <c r="G86" t="n">
-        <v>-16594413.98699999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3583,24 +3173,15 @@
         <v>1270689.9765</v>
       </c>
       <c r="G87" t="n">
-        <v>-17865103.96349999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3622,24 +3203,15 @@
         <v>988</v>
       </c>
       <c r="G88" t="n">
-        <v>-17866091.96349999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3661,24 +3233,15 @@
         <v>2450699.7555</v>
       </c>
       <c r="G89" t="n">
-        <v>-15415392.20799999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3700,24 +3263,15 @@
         <v>1736410.8909</v>
       </c>
       <c r="G90" t="n">
-        <v>-13678981.31709999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3739,24 +3293,15 @@
         <v>2170805</v>
       </c>
       <c r="G91" t="n">
-        <v>-15849786.31709999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3778,24 +3323,15 @@
         <v>2998666.5142</v>
       </c>
       <c r="G92" t="n">
-        <v>-12851119.80289999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3817,24 +3353,15 @@
         <v>2435735.1718</v>
       </c>
       <c r="G93" t="n">
-        <v>-15286854.97469999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3856,24 +3383,15 @@
         <v>1363.8138</v>
       </c>
       <c r="G94" t="n">
-        <v>-15285491.16089999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3895,24 +3413,15 @@
         <v>3358818.8575</v>
       </c>
       <c r="G95" t="n">
-        <v>-11926672.30339999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3934,24 +3443,15 @@
         <v>1461384.5324</v>
       </c>
       <c r="G96" t="n">
-        <v>-13388056.83579999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3973,24 +3473,15 @@
         <v>3023036.6736</v>
       </c>
       <c r="G97" t="n">
-        <v>-10365020.16219999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4012,24 +3503,15 @@
         <v>2969397.949</v>
       </c>
       <c r="G98" t="n">
-        <v>-13334418.11119999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4051,24 +3533,15 @@
         <v>3977225.8609</v>
       </c>
       <c r="G99" t="n">
-        <v>-9357192.250299994</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4090,24 +3563,15 @@
         <v>2914722.1039</v>
       </c>
       <c r="G100" t="n">
-        <v>-6442470.146399993</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4129,24 +3593,15 @@
         <v>3155605.3095</v>
       </c>
       <c r="G101" t="n">
-        <v>-9598075.455899993</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4168,24 +3623,15 @@
         <v>1717273.9639</v>
       </c>
       <c r="G102" t="n">
-        <v>-7880801.491999993</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4207,24 +3653,15 @@
         <v>3118748.6554</v>
       </c>
       <c r="G103" t="n">
-        <v>-10999550.14739999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4246,24 +3683,15 @@
         <v>3887967.8578</v>
       </c>
       <c r="G104" t="n">
-        <v>-7111582.289599994</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4285,24 +3713,15 @@
         <v>3704504.1817</v>
       </c>
       <c r="G105" t="n">
-        <v>-10816086.47129999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4324,24 +3743,15 @@
         <v>5169.7538</v>
       </c>
       <c r="G106" t="n">
-        <v>-10810916.7175</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4363,24 +3773,15 @@
         <v>3717970.2502</v>
       </c>
       <c r="G107" t="n">
-        <v>-14528886.9677</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4402,24 +3803,15 @@
         <v>2776480.4759</v>
       </c>
       <c r="G108" t="n">
-        <v>-11752406.4918</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4441,24 +3833,15 @@
         <v>2887708.1143</v>
       </c>
       <c r="G109" t="n">
-        <v>-14640114.60609999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4480,24 +3863,15 @@
         <v>948229.6561</v>
       </c>
       <c r="G110" t="n">
-        <v>-15588344.26219999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4519,24 +3893,15 @@
         <v>3864415.7179</v>
       </c>
       <c r="G111" t="n">
-        <v>-19452759.98009999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4558,24 +3923,15 @@
         <v>1420909.1007</v>
       </c>
       <c r="G112" t="n">
-        <v>-20873669.08079999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4597,24 +3953,15 @@
         <v>0.6714</v>
       </c>
       <c r="G113" t="n">
-        <v>-20873669.75219999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4636,24 +3983,15 @@
         <v>2422623.6523</v>
       </c>
       <c r="G114" t="n">
-        <v>-18451046.09989999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4675,24 +4013,15 @@
         <v>2311797.3973</v>
       </c>
       <c r="G115" t="n">
-        <v>-20762843.49719999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4714,24 +4043,15 @@
         <v>3577342.309</v>
       </c>
       <c r="G116" t="n">
-        <v>-17185501.18819999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4753,24 +4073,15 @@
         <v>35001.2816</v>
       </c>
       <c r="G117" t="n">
-        <v>-17220502.46979999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4792,24 +4103,15 @@
         <v>4153810.0586</v>
       </c>
       <c r="G118" t="n">
-        <v>-13066692.41119999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4831,24 +4133,15 @@
         <v>439769.8397</v>
       </c>
       <c r="G119" t="n">
-        <v>-13506462.25089999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4870,24 +4163,15 @@
         <v>79254.9448</v>
       </c>
       <c r="G120" t="n">
-        <v>-13506462.25089999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4909,24 +4193,15 @@
         <v>5000</v>
       </c>
       <c r="G121" t="n">
-        <v>-13506462.25089999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4948,24 +4223,15 @@
         <v>5227022.245</v>
       </c>
       <c r="G122" t="n">
-        <v>-8279440.005899991</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4987,24 +4253,15 @@
         <v>3921137.4045</v>
       </c>
       <c r="G123" t="n">
-        <v>-4358302.601399991</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5026,24 +4283,15 @@
         <v>2201900.3376</v>
       </c>
       <c r="G124" t="n">
-        <v>-2156402.263799991</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5065,24 +4313,15 @@
         <v>903561.838</v>
       </c>
       <c r="G125" t="n">
-        <v>-3059964.101799991</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5104,24 +4343,15 @@
         <v>2119739.0436</v>
       </c>
       <c r="G126" t="n">
-        <v>-5179703.14539999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5143,24 +4373,15 @@
         <v>4197135.4353</v>
       </c>
       <c r="G127" t="n">
-        <v>-982567.7100999905</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5182,24 +4403,15 @@
         <v>1959295.2145</v>
       </c>
       <c r="G128" t="n">
-        <v>-2941862.92459999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5221,24 +4433,15 @@
         <v>3599196.6774</v>
       </c>
       <c r="G129" t="n">
-        <v>657333.7528000097</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5260,24 +4463,15 @@
         <v>1076483.0077</v>
       </c>
       <c r="G130" t="n">
-        <v>-419149.2548999903</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5299,24 +4493,15 @@
         <v>3763043</v>
       </c>
       <c r="G131" t="n">
-        <v>-4182192.25489999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5338,24 +4523,15 @@
         <v>1122864.0253</v>
       </c>
       <c r="G132" t="n">
-        <v>-3059328.22959999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5377,24 +4553,15 @@
         <v>2985165.1237</v>
       </c>
       <c r="G133" t="n">
-        <v>-74163.10589999007</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5416,24 +4583,15 @@
         <v>906889.6884</v>
       </c>
       <c r="G134" t="n">
-        <v>-981052.7942999901</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5455,24 +4613,15 @@
         <v>2646778.008</v>
       </c>
       <c r="G135" t="n">
-        <v>1665725.21370001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5494,24 +4643,15 @@
         <v>2449170.7755</v>
       </c>
       <c r="G136" t="n">
-        <v>-783445.56179999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5533,24 +4673,15 @@
         <v>966541.0031</v>
       </c>
       <c r="G137" t="n">
-        <v>183095.44130001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5572,24 +4703,15 @@
         <v>2272879.032</v>
       </c>
       <c r="G138" t="n">
-        <v>-2089783.59069999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5611,24 +4733,15 @@
         <v>2184890.9978</v>
       </c>
       <c r="G139" t="n">
-        <v>95107.40710000973</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5650,24 +4763,15 @@
         <v>2330655.3461</v>
       </c>
       <c r="G140" t="n">
-        <v>-2235547.93899999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
